--- a/October'21/18.10.2021/Daily Sales Info.xlsx
+++ b/October'21/18.10.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -26186,8 +26186,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27880,9 +27880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29606,9 +29606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
